--- a/data/PoultryData/Poultry.xlsx
+++ b/data/PoultryData/Poultry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saban\Saba PhD Work\LiveStockHealthOntologyPigPoultryCattleUseCase(DECIDE)(Conference)\data\PoultryData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saban\Saba PhD Work\PigPoultryCattleUseCase(DECIDE WP1)\data\PoultryData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF5B5F-AF81-4ED6-90EB-6A9D76B15BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4665A-FD8B-43AA-9978-12290305DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="0" windowWidth="17304" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>5491</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>5711</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>5813</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>5813</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>6598</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>5721</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
